--- a/Programação em Microinformática/EXERCICIO 2 -  FUNCAO SE.xlsx
+++ b/Programação em Microinformática/EXERCICIO 2 -  FUNCAO SE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fatec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanl\Documents\FATEC\Programação em Microinformática\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{421CF351-3CAA-4642-9A97-8583DA63C999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34794F47-3010-4741-8401-36AA1EA527D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -187,7 +198,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +209,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,7 +310,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -300,7 +327,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -313,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -326,9 +353,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -338,85 +362,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -455,49 +414,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -779,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection sqref="A1:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,11 +918,11 @@
     <mergeCell ref="F1:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E10">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"REPROVADO(A)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"APROVADO(A)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
-      <formula>"REPROVADO(A)"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1018,7 +935,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,11 +1139,11 @@
     <mergeCell ref="F3:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D12">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"REPROVADO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"APROVADO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"REPROVADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1237,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,8 +1186,8 @@
       <c r="F1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="12"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
@@ -1294,7 +1211,7 @@
       <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1320,7 +1237,7 @@
       <c r="F3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1363,9 +1280,10 @@
         <f t="shared" si="1"/>
         <v>PESO NORMAL</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="11" t="s">
         <v>48</v>
       </c>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
@@ -1406,6 +1324,7 @@
         <f t="shared" si="1"/>
         <v>ACIMA DO PESO</v>
       </c>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
@@ -1426,6 +1345,7 @@
         <f t="shared" si="1"/>
         <v>PESO NORMAL</v>
       </c>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
@@ -1466,17 +1386,18 @@
         <f t="shared" si="1"/>
         <v>PESO NORMAL</v>
       </c>
+      <c r="F10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E10">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"ACIMA DO PESO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"PESO NORMAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"ACIMA DO PESO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1487,26 +1408,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="14" t="s">
         <v>37</v>
       </c>
@@ -1521,10 +1442,10 @@
       <c r="B2" s="6">
         <v>0.6</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1559,11 +1480,11 @@
       <c r="D4" s="1">
         <v>80</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="12">
         <f>IF(C4&lt;100,B4+B4*$A$2,B4+B4*$B$2)</f>
         <v>8</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="24">
         <f>D4*E4</f>
         <v>640</v>
       </c>
@@ -1755,9 +1676,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1769,8 +1690,8 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="6">
@@ -1783,8 +1704,8 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
       <c r="B2" s="6">
         <v>0.2</v>
       </c>
@@ -1793,14 +1714,14 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="str">
         <f>Planilha4!A3</f>
         <v>PRODUTO</v>
@@ -1816,7 +1737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>Planilha4!A4</f>
         <v>PAPEL SULFITE</v>
@@ -1828,12 +1749,12 @@
       <c r="C5" s="1">
         <v>30</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="12">
         <f>IF(C5&gt;20,B5-B5*$B$2,B5-B5*$B$2)</f>
         <v>6.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>Planilha4!A5</f>
         <v>BORRACHA</v>
@@ -1850,7 +1771,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>Planilha4!A6</f>
         <v>LAPIS</v>
@@ -1867,7 +1788,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>Planilha4!A7</f>
         <v>CANETA</v>
@@ -1884,7 +1805,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>Planilha4!A8</f>
         <v>APONTADOR</v>
@@ -1901,7 +1822,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>Planilha4!A9</f>
         <v>PINCEL</v>
@@ -1913,13 +1834,12 @@
       <c r="C10" s="1">
         <v>20</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>Planilha4!A10</f>
         <v>TESOURA</v>
@@ -1936,7 +1856,7 @@
         <v>10.080000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>Planilha4!A11</f>
         <v>CALCULADORA</v>
@@ -1953,7 +1873,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>Planilha4!A12</f>
         <v>CADERNO</v>

--- a/Programação em Microinformática/EXERCICIO 2 -  FUNCAO SE.xlsx
+++ b/Programação em Microinformática/EXERCICIO 2 -  FUNCAO SE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duanl\Documents\FATEC\Programação em Microinformática\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fatec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34794F47-3010-4741-8401-36AA1EA527D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{421CF351-3CAA-4642-9A97-8583DA63C999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -198,7 +187,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,20 +198,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,9 +285,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -327,7 +300,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -340,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -353,6 +326,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,20 +338,71 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -393,6 +420,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
@@ -414,7 +455,49 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -696,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection sqref="A1:J14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,11 +1001,11 @@
     <mergeCell ref="F1:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E10">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+      <formula>"APROVADO(A)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"REPROVADO(A)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"APROVADO(A)"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -935,7 +1018,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,11 +1222,11 @@
     <mergeCell ref="F3:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D12">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"APROVADO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"REPROVADO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"APROVADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1154,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,8 +1269,8 @@
       <c r="F1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
@@ -1211,7 +1294,7 @@
       <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1237,7 +1320,7 @@
       <c r="F3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1280,10 +1363,9 @@
         <f t="shared" si="1"/>
         <v>PESO NORMAL</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
@@ -1324,7 +1406,6 @@
         <f t="shared" si="1"/>
         <v>ACIMA DO PESO</v>
       </c>
-      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
@@ -1345,7 +1426,6 @@
         <f t="shared" si="1"/>
         <v>PESO NORMAL</v>
       </c>
-      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
@@ -1386,18 +1466,17 @@
         <f t="shared" si="1"/>
         <v>PESO NORMAL</v>
       </c>
-      <c r="F10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E10">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"PESO NORMAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"ACIMA DO PESO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"PESO NORMAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1408,26 +1487,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="14" t="s">
         <v>37</v>
       </c>
@@ -1442,10 +1521,10 @@
       <c r="B2" s="6">
         <v>0.6</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1480,11 +1559,11 @@
       <c r="D4" s="1">
         <v>80</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="7">
         <f>IF(C4&lt;100,B4+B4*$A$2,B4+B4*$B$2)</f>
         <v>8</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="8">
         <f>D4*E4</f>
         <v>640</v>
       </c>
@@ -1676,9 +1755,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1690,8 +1769,8 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="6">
@@ -1704,8 +1783,8 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
       <c r="B2" s="6">
         <v>0.2</v>
       </c>
@@ -1714,14 +1793,14 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="str">
         <f>Planilha4!A3</f>
         <v>PRODUTO</v>
@@ -1737,7 +1816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>Planilha4!A4</f>
         <v>PAPEL SULFITE</v>
@@ -1749,12 +1828,12 @@
       <c r="C5" s="1">
         <v>30</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="21">
         <f>IF(C5&gt;20,B5-B5*$B$2,B5-B5*$B$2)</f>
         <v>6.4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>Planilha4!A5</f>
         <v>BORRACHA</v>
@@ -1771,7 +1850,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>Planilha4!A6</f>
         <v>LAPIS</v>
@@ -1788,7 +1867,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>Planilha4!A7</f>
         <v>CANETA</v>
@@ -1805,7 +1884,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>Planilha4!A8</f>
         <v>APONTADOR</v>
@@ -1822,7 +1901,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>Planilha4!A9</f>
         <v>PINCEL</v>
@@ -1834,12 +1913,13 @@
       <c r="C10" s="1">
         <v>20</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>Planilha4!A10</f>
         <v>TESOURA</v>
@@ -1856,7 +1936,7 @@
         <v>10.080000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>Planilha4!A11</f>
         <v>CALCULADORA</v>
@@ -1873,7 +1953,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>Planilha4!A12</f>
         <v>CADERNO</v>
